--- a/SPApplication/SPApplication/bin/Debug/Data/Format/CapCOAReport.xlsx
+++ b/SPApplication/SPApplication/bin/Debug/Data/Format/CapCOAReport.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28526"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BEFB2D0-5634-4A80-A14F-A2DD7E50C233}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61CD26B3-BB8C-4713-8FC8-6B3528FEC850}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -259,7 +259,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
@@ -294,19 +294,79 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -325,70 +385,7 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -758,7 +755,7 @@
   <dimension ref="A1:T63"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10:G10"/>
+      <selection activeCell="N7" sqref="N7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
@@ -774,211 +771,211 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27"/>
-      <c r="G1" s="28"/>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="19"/>
     </row>
     <row r="2" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="29"/>
-      <c r="B2" s="30"/>
-      <c r="C2" s="30"/>
-      <c r="D2" s="30"/>
-      <c r="E2" s="30"/>
-      <c r="F2" s="30"/>
-      <c r="G2" s="31"/>
+      <c r="A2" s="20"/>
+      <c r="B2" s="21"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="21"/>
+      <c r="G2" s="22"/>
     </row>
     <row r="3" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="32"/>
-      <c r="B3" s="33"/>
-      <c r="C3" s="33"/>
-      <c r="D3" s="33"/>
-      <c r="E3" s="33"/>
-      <c r="F3" s="33"/>
-      <c r="G3" s="34"/>
+      <c r="A3" s="23"/>
+      <c r="B3" s="24"/>
+      <c r="C3" s="24"/>
+      <c r="D3" s="24"/>
+      <c r="E3" s="24"/>
+      <c r="F3" s="24"/>
+      <c r="G3" s="25"/>
     </row>
     <row r="4" spans="1:7" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="23" t="s">
+      <c r="A4" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="24"/>
-      <c r="C4" s="24"/>
-      <c r="D4" s="24"/>
-      <c r="E4" s="24"/>
-      <c r="F4" s="24"/>
-      <c r="G4" s="25"/>
+      <c r="B4" s="14"/>
+      <c r="C4" s="14"/>
+      <c r="D4" s="14"/>
+      <c r="E4" s="14"/>
+      <c r="F4" s="14"/>
+      <c r="G4" s="15"/>
     </row>
     <row r="5" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="22" t="s">
+      <c r="A5" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="22"/>
-      <c r="C5" s="35"/>
-      <c r="D5" s="36"/>
-      <c r="E5" s="37"/>
+      <c r="B5" s="16"/>
+      <c r="C5" s="26"/>
+      <c r="D5" s="27"/>
+      <c r="E5" s="28"/>
       <c r="F5" s="5" t="s">
         <v>2</v>
       </c>
       <c r="G5" s="11"/>
     </row>
     <row r="6" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="22"/>
-      <c r="B6" s="22"/>
-      <c r="C6" s="38"/>
-      <c r="D6" s="39"/>
-      <c r="E6" s="40"/>
+      <c r="A6" s="16"/>
+      <c r="B6" s="16"/>
+      <c r="C6" s="29"/>
+      <c r="D6" s="30"/>
+      <c r="E6" s="31"/>
       <c r="F6" s="5" t="s">
         <v>13</v>
       </c>
       <c r="G6" s="11"/>
     </row>
     <row r="7" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="22"/>
-      <c r="B7" s="22"/>
-      <c r="C7" s="41"/>
-      <c r="D7" s="42"/>
-      <c r="E7" s="43"/>
+      <c r="A7" s="16"/>
+      <c r="B7" s="16"/>
+      <c r="C7" s="32"/>
+      <c r="D7" s="33"/>
+      <c r="E7" s="34"/>
       <c r="F7" s="5" t="s">
         <v>14</v>
       </c>
       <c r="G7" s="11"/>
     </row>
     <row r="8" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="18" t="s">
+      <c r="A8" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="18"/>
-      <c r="C8" s="15"/>
-      <c r="D8" s="16"/>
-      <c r="E8" s="16"/>
-      <c r="F8" s="16"/>
-      <c r="G8" s="17"/>
+      <c r="B8" s="38"/>
+      <c r="C8" s="35"/>
+      <c r="D8" s="36"/>
+      <c r="E8" s="36"/>
+      <c r="F8" s="36"/>
+      <c r="G8" s="37"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="18" t="s">
+      <c r="A9" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="B9" s="18"/>
-      <c r="C9" s="15"/>
-      <c r="D9" s="16"/>
-      <c r="E9" s="16"/>
-      <c r="F9" s="16"/>
-      <c r="G9" s="17"/>
+      <c r="B9" s="38"/>
+      <c r="C9" s="35"/>
+      <c r="D9" s="36"/>
+      <c r="E9" s="36"/>
+      <c r="F9" s="36"/>
+      <c r="G9" s="37"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="18" t="s">
+      <c r="A10" s="38" t="s">
         <v>6</v>
       </c>
-      <c r="B10" s="18"/>
-      <c r="C10" s="15"/>
-      <c r="D10" s="16"/>
-      <c r="E10" s="16"/>
-      <c r="F10" s="16"/>
-      <c r="G10" s="17"/>
+      <c r="B10" s="38"/>
+      <c r="C10" s="35"/>
+      <c r="D10" s="36"/>
+      <c r="E10" s="36"/>
+      <c r="F10" s="36"/>
+      <c r="G10" s="37"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="18" t="s">
+      <c r="A11" s="38" t="s">
         <v>12</v>
       </c>
-      <c r="B11" s="18"/>
-      <c r="C11" s="15"/>
-      <c r="D11" s="16"/>
-      <c r="E11" s="16"/>
-      <c r="F11" s="16"/>
-      <c r="G11" s="17"/>
+      <c r="B11" s="38"/>
+      <c r="C11" s="35"/>
+      <c r="D11" s="36"/>
+      <c r="E11" s="36"/>
+      <c r="F11" s="36"/>
+      <c r="G11" s="37"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="18" t="s">
+      <c r="A12" s="38" t="s">
         <v>7</v>
       </c>
-      <c r="B12" s="18"/>
-      <c r="C12" s="18"/>
-      <c r="D12" s="18"/>
-      <c r="E12" s="18"/>
-      <c r="F12" s="18"/>
-      <c r="G12" s="18"/>
+      <c r="B12" s="38"/>
+      <c r="C12" s="38"/>
+      <c r="D12" s="38"/>
+      <c r="E12" s="38"/>
+      <c r="F12" s="38"/>
+      <c r="G12" s="38"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="22"/>
-      <c r="B13" s="22"/>
-      <c r="C13" s="22"/>
-      <c r="D13" s="22"/>
-      <c r="E13" s="22"/>
-      <c r="F13" s="22"/>
-      <c r="G13" s="22"/>
+      <c r="A13" s="16"/>
+      <c r="B13" s="16"/>
+      <c r="C13" s="16"/>
+      <c r="D13" s="16"/>
+      <c r="E13" s="16"/>
+      <c r="F13" s="16"/>
+      <c r="G13" s="16"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="22"/>
-      <c r="B14" s="22"/>
-      <c r="C14" s="22"/>
-      <c r="D14" s="22"/>
-      <c r="E14" s="22"/>
-      <c r="F14" s="22"/>
-      <c r="G14" s="22"/>
+      <c r="A14" s="16"/>
+      <c r="B14" s="16"/>
+      <c r="C14" s="16"/>
+      <c r="D14" s="16"/>
+      <c r="E14" s="16"/>
+      <c r="F14" s="16"/>
+      <c r="G14" s="16"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="22"/>
-      <c r="B15" s="22"/>
-      <c r="C15" s="22"/>
-      <c r="D15" s="22"/>
-      <c r="E15" s="22"/>
-      <c r="F15" s="22"/>
-      <c r="G15" s="22"/>
+      <c r="A15" s="16"/>
+      <c r="B15" s="16"/>
+      <c r="C15" s="16"/>
+      <c r="D15" s="16"/>
+      <c r="E15" s="16"/>
+      <c r="F15" s="16"/>
+      <c r="G15" s="16"/>
     </row>
     <row r="16" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="22"/>
-      <c r="B16" s="22"/>
-      <c r="C16" s="22"/>
-      <c r="D16" s="22"/>
-      <c r="E16" s="22"/>
-      <c r="F16" s="22"/>
-      <c r="G16" s="22"/>
+      <c r="A16" s="16"/>
+      <c r="B16" s="16"/>
+      <c r="C16" s="16"/>
+      <c r="D16" s="16"/>
+      <c r="E16" s="16"/>
+      <c r="F16" s="16"/>
+      <c r="G16" s="16"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="18" t="s">
+      <c r="A17" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="B17" s="18"/>
-      <c r="C17" s="18" t="s">
+      <c r="B17" s="38"/>
+      <c r="C17" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="D17" s="18"/>
-      <c r="E17" s="18"/>
-      <c r="F17" s="18"/>
-      <c r="G17" s="18"/>
+      <c r="D17" s="38"/>
+      <c r="E17" s="38"/>
+      <c r="F17" s="38"/>
+      <c r="G17" s="38"/>
     </row>
     <row r="18" spans="1:7" ht="5.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="19"/>
-      <c r="B18" s="20"/>
-      <c r="C18" s="20"/>
-      <c r="D18" s="20"/>
-      <c r="E18" s="20"/>
-      <c r="F18" s="20"/>
-      <c r="G18" s="21"/>
+      <c r="A18" s="39"/>
+      <c r="B18" s="40"/>
+      <c r="C18" s="40"/>
+      <c r="D18" s="40"/>
+      <c r="E18" s="40"/>
+      <c r="F18" s="40"/>
+      <c r="G18" s="41"/>
     </row>
     <row r="19" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B19" s="16" t="s">
+      <c r="B19" s="38" t="s">
         <v>10</v>
       </c>
-      <c r="C19" s="16"/>
-      <c r="D19" s="13" t="s">
+      <c r="C19" s="38"/>
+      <c r="D19" s="38"/>
+      <c r="E19" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="E19" s="13" t="s">
+      <c r="F19" s="42" t="s">
         <v>15</v>
       </c>
-      <c r="F19" s="13" t="s">
+      <c r="G19" s="42" t="s">
         <v>17</v>
       </c>
-      <c r="G19" s="14"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="9"/>
@@ -1235,6 +1232,16 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="C10:G10"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="A18:G18"/>
+    <mergeCell ref="A12:G12"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C17:G17"/>
+    <mergeCell ref="C11:G11"/>
+    <mergeCell ref="A13:G16"/>
+    <mergeCell ref="B19:D19"/>
     <mergeCell ref="A4:G4"/>
     <mergeCell ref="A5:B7"/>
     <mergeCell ref="A1:G3"/>
@@ -1243,16 +1250,6 @@
     <mergeCell ref="A8:B8"/>
     <mergeCell ref="A9:B9"/>
     <mergeCell ref="C8:G8"/>
-    <mergeCell ref="C10:G10"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="A18:G18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="A12:G12"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="C17:G17"/>
-    <mergeCell ref="C11:G11"/>
-    <mergeCell ref="A13:G16"/>
   </mergeCells>
   <pageMargins left="0.25" right="0" top="0.25" bottom="0" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
